--- a/biology/Zoologie/Cardisoma_armatum/Cardisoma_armatum.xlsx
+++ b/biology/Zoologie/Cardisoma_armatum/Cardisoma_armatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cardisoma armatum est une espèce de crabe terrestre de la famille des Gecarcinidae[1]. On parle aussi de crabe tricolore africain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cardisoma armatum est une espèce de crabe terrestre de la famille des Gecarcinidae. On parle aussi de crabe tricolore africain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est de couleur violet brun sur la carapace et assez rougeâtre à orangé sur les pattes. Les contours de sa face dorsale, surtout au niveau de l’insertion de ses yeux, sont d’un bleu vif à marine. Les pinces peuvent aussi être colorées de bleu. Le front (zone entre les deux yeux) est légèrement plus large que les orbites elles-mêmes. Il creuse des galeries dans un sol sableux, marécageux à assez dur. Il est majoritairement nocturne.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce crabe se rencontre en Afrique, du Sénégal à l'Angola et notamment en Côte d'Ivoire. Il est présent sur le haut des plages et dans les zones marécageuses meubles[2]. Il s'aventure peu sur la plage côtière elle-même.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce crabe se rencontre en Afrique, du Sénégal à l'Angola et notamment en Côte d'Ivoire. Il est présent sur le haut des plages et dans les zones marécageuses meubles. Il s'aventure peu sur la plage côtière elle-même.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Herklots, 1851 : Additamenta ad faunum carcinologicam Africae occidentalis, sive descriptions specierum novarum e Crustaceorum ordine, quas in Guinea collegit vir sternuus H.S. Pel. p. 1-27.
 Voir https://www.scitechnol.com/peer-review/taxonomic-diversity-of-crabs-in-the-national-park-of-ehotile-islands-and-its-adjacent-areasat-cote-divoirewest-africa-Snqj.php?article_id=10573 pour des données morpho métriques chiffrées issues d'une étude scientifique</t>
